--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2539357.235156572</v>
+        <v>-2542211.102316564</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>301.1833619183254</v>
+        <v>145.9578468790569</v>
       </c>
       <c r="G2" t="n">
         <v>414.2044176539836</v>
       </c>
       <c r="H2" t="n">
-        <v>328.2266338377498</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>80.87678296309441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2577873189444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>150.5141070037598</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.5468522677334</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>147.5607885526141</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.755864229954</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>106.5599540653072</v>
       </c>
       <c r="I3" t="n">
-        <v>69.16384545639443</v>
+        <v>69.16384545639444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>63.67180378781355</v>
       </c>
       <c r="S3" t="n">
         <v>160.7677756111101</v>
@@ -795,7 +795,7 @@
         <v>225.9027207037869</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.8469018513531</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.7219969140927</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>196.9534257472329</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>59.56838371228571</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>303.9613846692571</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>65.52699321158141</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.1549927081308</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>119.7642529022456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>214.4196405732885</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>194.3882231773679</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>35.05360702936574</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>102.225645729136</v>
       </c>
       <c r="T10" t="n">
-        <v>67.2233180180113</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.7157037776618</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.38324202937314</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>36.00502760852028</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>80.56412890121557</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>233.9399788842217</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317899</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545309</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265257</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3791,10 +3791,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.9811888265258</v>
@@ -3946,13 +3946,13 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2211.400450292735</v>
+        <v>1337.27669377831</v>
       </c>
       <c r="C2" t="n">
-        <v>1842.437933352323</v>
+        <v>968.3141768378987</v>
       </c>
       <c r="D2" t="n">
-        <v>1484.172234745572</v>
+        <v>610.0484782311481</v>
       </c>
       <c r="E2" t="n">
-        <v>1098.383982147328</v>
+        <v>610.0484782311481</v>
       </c>
       <c r="F2" t="n">
-        <v>794.1583640480096</v>
+        <v>462.6163096664442</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7700633874201</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="H2" t="n">
-        <v>44.22800900585469</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="I2" t="n">
-        <v>44.22800900585469</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="J2" t="n">
-        <v>124.684552607038</v>
+        <v>124.6845526070379</v>
       </c>
       <c r="K2" t="n">
-        <v>366.0128595055259</v>
+        <v>366.0128595055256</v>
       </c>
       <c r="L2" t="n">
-        <v>717.6785914639566</v>
+        <v>717.6785914639563</v>
       </c>
       <c r="M2" t="n">
-        <v>1125.581022473078</v>
+        <v>1125.581022473077</v>
       </c>
       <c r="N2" t="n">
         <v>1525.451743718975</v>
@@ -4349,31 +4349,31 @@
         <v>2103.871115498273</v>
       </c>
       <c r="Q2" t="n">
-        <v>2211.400450292735</v>
+        <v>2211.400450292734</v>
       </c>
       <c r="R2" t="n">
-        <v>2211.400450292735</v>
+        <v>2129.706730127992</v>
       </c>
       <c r="S2" t="n">
-        <v>2211.400450292735</v>
+        <v>2129.706730127992</v>
       </c>
       <c r="T2" t="n">
-        <v>2211.400450292735</v>
+        <v>2129.706730127992</v>
       </c>
       <c r="U2" t="n">
-        <v>2211.400450292735</v>
+        <v>1875.910985361381</v>
       </c>
       <c r="V2" t="n">
-        <v>2211.400450292735</v>
+        <v>1875.910985361381</v>
       </c>
       <c r="W2" t="n">
-        <v>2211.400450292735</v>
+        <v>1723.876533842432</v>
       </c>
       <c r="X2" t="n">
-        <v>2211.400450292735</v>
+        <v>1723.876533842432</v>
       </c>
       <c r="Y2" t="n">
-        <v>2211.400450292735</v>
+        <v>1723.876533842432</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.8135753011541</v>
+        <v>989.0234849183749</v>
       </c>
       <c r="C3" t="n">
-        <v>547.8135753011541</v>
+        <v>814.570455637248</v>
       </c>
       <c r="D3" t="n">
-        <v>547.8135753011541</v>
+        <v>665.6360459759967</v>
       </c>
       <c r="E3" t="n">
-        <v>398.762273732857</v>
+        <v>506.3985909705411</v>
       </c>
       <c r="F3" t="n">
-        <v>252.227715759742</v>
+        <v>359.8640329974261</v>
       </c>
       <c r="G3" t="n">
-        <v>114.0904791638289</v>
+        <v>221.726796401513</v>
       </c>
       <c r="H3" t="n">
         <v>114.0904791638289</v>
       </c>
       <c r="I3" t="n">
-        <v>44.22800900585469</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="J3" t="n">
-        <v>98.45399550921336</v>
+        <v>98.4539955092133</v>
       </c>
       <c r="K3" t="n">
-        <v>317.7556865463183</v>
+        <v>317.7556865463182</v>
       </c>
       <c r="L3" t="n">
-        <v>674.0382699421315</v>
+        <v>674.0382699421313</v>
       </c>
       <c r="M3" t="n">
         <v>1141.782461641545</v>
       </c>
       <c r="N3" t="n">
-        <v>1386.832569742079</v>
+        <v>1637.613463666419</v>
       </c>
       <c r="O3" t="n">
-        <v>1774.005389894768</v>
+        <v>1917.663196038827</v>
       </c>
       <c r="P3" t="n">
-        <v>2067.742644148675</v>
+        <v>2211.400450292734</v>
       </c>
       <c r="Q3" t="n">
-        <v>2211.400450292735</v>
+        <v>2211.400450292734</v>
       </c>
       <c r="R3" t="n">
-        <v>2211.400450292735</v>
+        <v>2147.08549697171</v>
       </c>
       <c r="S3" t="n">
-        <v>2049.00875775626</v>
+        <v>1984.693804435235</v>
       </c>
       <c r="T3" t="n">
-        <v>1849.214742619115</v>
+        <v>1784.899789298089</v>
       </c>
       <c r="U3" t="n">
-        <v>1621.030176251653</v>
+        <v>1556.715222930628</v>
       </c>
       <c r="V3" t="n">
-        <v>1385.87806801991</v>
+        <v>1556.715222930628</v>
       </c>
       <c r="W3" t="n">
-        <v>1131.640711291709</v>
+        <v>1302.477866202426</v>
       </c>
       <c r="X3" t="n">
-        <v>923.789211086176</v>
+        <v>1094.626365996894</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.0289123212222</v>
+        <v>1094.626365996894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
       <c r="C4" t="n">
-        <v>1852.846088663724</v>
+        <v>194.3446484181904</v>
       </c>
       <c r="D4" t="n">
-        <v>1852.846088663724</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="E4" t="n">
-        <v>1852.846088663724</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="F4" t="n">
-        <v>1852.846088663724</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="G4" t="n">
-        <v>1852.846088663724</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="H4" t="n">
-        <v>1693.404773662357</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="I4" t="n">
-        <v>1693.404773662357</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="J4" t="n">
-        <v>1693.404773662357</v>
+        <v>44.22800900585467</v>
       </c>
       <c r="K4" t="n">
-        <v>1728.024705174914</v>
+        <v>78.84794051841166</v>
       </c>
       <c r="L4" t="n">
-        <v>1827.852732888703</v>
+        <v>178.6759682321998</v>
       </c>
       <c r="M4" t="n">
-        <v>1943.496514285086</v>
+        <v>294.3197496285833</v>
       </c>
       <c r="N4" t="n">
-        <v>2061.825161458277</v>
+        <v>412.6483968017745</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.104523654755</v>
+        <v>505.9277589982524</v>
       </c>
       <c r="P4" t="n">
-        <v>2211.400450292735</v>
+        <v>562.2236856362316</v>
       </c>
       <c r="Q4" t="n">
-        <v>2211.400450292735</v>
+        <v>562.2236856362316</v>
       </c>
       <c r="R4" t="n">
-        <v>2211.400450292735</v>
+        <v>562.2236856362316</v>
       </c>
       <c r="S4" t="n">
-        <v>2211.400450292735</v>
+        <v>562.2236856362316</v>
       </c>
       <c r="T4" t="n">
-        <v>2021.782271591631</v>
+        <v>562.2236856362316</v>
       </c>
       <c r="U4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
       <c r="V4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
       <c r="W4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
       <c r="X4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
       <c r="Y4" t="n">
-        <v>2021.782271591631</v>
+        <v>363.2808313460973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.029911866479</v>
+        <v>1339.026990885663</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.067394926067</v>
+        <v>1339.026990885663</v>
       </c>
       <c r="D5" t="n">
-        <v>1384.801696319317</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>594.9730396806683</v>
       </c>
       <c r="F5" t="n">
         <v>588.0275389314648</v>
@@ -4571,19 +4571,19 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>1196.167056847984</v>
+        <v>782.6824544430381</v>
       </c>
       <c r="M5" t="n">
-        <v>1827.884867831296</v>
+        <v>1414.40026542635</v>
       </c>
       <c r="N5" t="n">
-        <v>2022.219080723278</v>
+        <v>2041.707933486196</v>
       </c>
       <c r="O5" t="n">
-        <v>2192.388106040237</v>
+        <v>2211.876958803156</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2322.611284052683</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="V5" t="n">
-        <v>2502.169243842291</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="W5" t="n">
-        <v>2502.169243842291</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="X5" t="n">
-        <v>2502.169243842291</v>
+        <v>2032.658532635903</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.029911866479</v>
+        <v>1725.626830949785</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647824</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
@@ -4647,22 +4647,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313601</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>525.3863696744245</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.565353453463</v>
+        <v>1519.21571451897</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.222095106128</v>
+        <v>1956.122306048581</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,13 +4683,13 @@
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>615.7516323817358</v>
+        <v>388.1741966676084</v>
       </c>
       <c r="C7" t="n">
-        <v>615.7516323817358</v>
+        <v>219.2380137397014</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7776395511847</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E7" t="n">
-        <v>494.7776395511847</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
-        <v>347.8876920532743</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>347.8876920532743</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>193.6330489530394</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
         <v>69.12137432736571</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>843.7411832797532</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="U7" t="n">
-        <v>843.7411832797532</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="V7" t="n">
-        <v>843.7411832797532</v>
+        <v>608.9667758111385</v>
       </c>
       <c r="W7" t="n">
-        <v>843.7411832797532</v>
+        <v>608.9667758111385</v>
       </c>
       <c r="X7" t="n">
-        <v>615.7516323817358</v>
+        <v>608.9667758111385</v>
       </c>
       <c r="Y7" t="n">
-        <v>615.7516323817358</v>
+        <v>388.1741966676084</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.270686757029</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>540.270686757029</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>540.270686757029</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>540.270686757029</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078256</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2241.288380343426</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.707319607605</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1656.644432264035</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1303.875776993921</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>930.4100187328407</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y8" t="n">
-        <v>540.270686757029</v>
+        <v>1939.905734928583</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>932.497810310101</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269322</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866269</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736637</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="C10" t="n">
-        <v>918.746976559464</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471282</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647351</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668247</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751033</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1533.187892065269</v>
       </c>
       <c r="T10" t="n">
-        <v>1269.33162431761</v>
+        <v>1533.187892065269</v>
       </c>
       <c r="U10" t="n">
-        <v>1269.33162431761</v>
+        <v>1244.069554569106</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.33162431761</v>
+        <v>989.3850663632195</v>
       </c>
       <c r="W10" t="n">
-        <v>1269.33162431761</v>
+        <v>699.9678963262589</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.33162431761</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.33162431761</v>
+        <v>471.9783454282416</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2113.492509992416</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1824.417283336614</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057155</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,10 +5546,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6470,16 +6470,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7026,16 +7026,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7500,7 +7500,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>226.0283400765433</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>285.6571801047285</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>64.96839264083927</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>226.4977546351475</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>206.8120447736134</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>272.0223893205761</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378116</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.6564140171173</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621874</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>162.0073097921266</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>105.6926838233861</v>
+        <v>260.9181988626545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>328.2266338377498</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>183.9921057502565</v>
       </c>
       <c r="T2" t="n">
-        <v>6.430122771938147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4983108797578</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>140.6345901314158</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.90777636701919</v>
       </c>
       <c r="R4" t="n">
         <v>155.1412250530349</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>215.4307300945206</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.840551382923</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>89.33873078314701</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>86.99395161137537</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>99.26785128072173</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>52.58301945236926</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>149.7636788678789</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.060233395338277e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1399037.268080396</v>
+        <v>1399037.268080397</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1399037.268080396</v>
+        <v>1399037.268080397</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1399037.268080396</v>
+        <v>1399037.268080397</v>
       </c>
     </row>
     <row r="10">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.45558071832</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225017</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
@@ -26335,22 +26335,22 @@
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="L2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
-      </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448538.6682463435</v>
+        <v>448538.6682463433</v>
       </c>
       <c r="C3" t="n">
-        <v>319982.1397202966</v>
+        <v>319982.1397202968</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230286</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.145141455743994e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>164077.6328477298</v>
       </c>
       <c r="K3" t="n">
-        <v>22580.10929518764</v>
+        <v>22580.1092951877</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175755.9543871018</v>
+        <v>175755.9543871019</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719718</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.3684617197</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481317</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="K4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="L4" t="n">
         <v>15498.22772481315</v>
       </c>
-      <c r="L4" t="n">
-        <v>15498.22772481318</v>
-      </c>
       <c r="M4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="N4" t="n">
         <v>15498.22772481314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481316</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73196.80087150863</v>
+        <v>73196.8008715086</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-681260.9679242356</v>
+        <v>-681690.5267908243</v>
       </c>
       <c r="C6" t="n">
-        <v>-583281.666912894</v>
+        <v>-583281.6669128942</v>
       </c>
       <c r="D6" t="n">
-        <v>-497210.6012630105</v>
+        <v>-497210.6012630084</v>
       </c>
       <c r="E6" t="n">
-        <v>-595936.6749179205</v>
+        <v>-595971.4128433582</v>
       </c>
       <c r="F6" t="n">
-        <v>-88451.23329337662</v>
+        <v>-88485.97121881229</v>
       </c>
       <c r="G6" t="n">
-        <v>-88451.23329337673</v>
+        <v>-88485.97121881232</v>
       </c>
       <c r="H6" t="n">
-        <v>-88451.23329337663</v>
+        <v>-88485.97121881235</v>
       </c>
       <c r="I6" t="n">
-        <v>-88451.23329337666</v>
+        <v>-88485.97121881235</v>
       </c>
       <c r="J6" t="n">
-        <v>-262213.9321798513</v>
+        <v>-262213.9321798512</v>
       </c>
       <c r="K6" t="n">
         <v>-120716.4086273091</v>
       </c>
       <c r="L6" t="n">
-        <v>-98136.29933212147</v>
+        <v>-98136.29933212146</v>
       </c>
       <c r="M6" t="n">
-        <v>-230743.5930610482</v>
+        <v>-230743.5930610481</v>
       </c>
       <c r="N6" t="n">
-        <v>-98136.29933212147</v>
+        <v>-98136.29933212143</v>
       </c>
       <c r="O6" t="n">
         <v>-117564.0173257532</v>
       </c>
       <c r="P6" t="n">
-        <v>-98136.29933212145</v>
+        <v>-98136.29933212147</v>
       </c>
     </row>
   </sheetData>
@@ -26698,25 +26698,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.2070654614253</v>
+        <v>273.2070654614251</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.8501125731837</v>
+        <v>552.8501125731834</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.2070654614253</v>
+        <v>273.2070654614251</v>
       </c>
       <c r="C3" t="n">
-        <v>320.2690348766398</v>
+        <v>320.2690348766399</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794765</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.8501125731837</v>
+        <v>552.8501125731834</v>
       </c>
       <c r="C4" t="n">
-        <v>87.73471952685509</v>
+        <v>87.73471952685532</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>552.8501125731837</v>
+        <v>552.8501125731834</v>
       </c>
       <c r="K4" t="n">
-        <v>87.73471952685509</v>
+        <v>87.73471952685532</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>552.8501125731837</v>
+        <v>552.8501125731834</v>
       </c>
       <c r="K4" t="n">
-        <v>87.73471952685509</v>
+        <v>87.73471952685532</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>80.87678296309437</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>211.8578316000027</v>
+        <v>218.2879543719409</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2577873189444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>198.7268617136532</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>61.9863313821339</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.08429190278687</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>106.5599540653072</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.67180378781352</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4983108797578</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.8469018513531</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6345901314157</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.52751867251697</v>
+        <v>58.52751867251699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.90777636701916</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>215.4307300945206</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>38.1185544688303</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2921565303799</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27673,16 +27673,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>268.1838747578492</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>82.27655398679644</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.53999045278886</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8512201159668</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>37.71800275053951</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12.26996180286585</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>351.1843316266878</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>92.43681463260144</v>
       </c>
       <c r="T10" t="n">
-        <v>153.5253779792006</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.098319861151458</v>
+        <v>1.098319861151457</v>
       </c>
       <c r="H2" t="n">
-        <v>11.24816827801737</v>
+        <v>11.24816827801736</v>
       </c>
       <c r="I2" t="n">
-        <v>42.34297644704161</v>
+        <v>42.34297644704159</v>
       </c>
       <c r="J2" t="n">
-        <v>93.21852531540362</v>
+        <v>93.21852531540357</v>
       </c>
       <c r="K2" t="n">
         <v>139.7104050379448</v>
       </c>
       <c r="L2" t="n">
-        <v>173.3231114886588</v>
+        <v>173.3231114886587</v>
       </c>
       <c r="M2" t="n">
-        <v>192.855357319411</v>
+        <v>192.8553573194109</v>
       </c>
       <c r="N2" t="n">
-        <v>195.9759586249076</v>
+        <v>195.9759586249075</v>
       </c>
       <c r="O2" t="n">
-        <v>185.0545405055828</v>
+        <v>185.0545405055827</v>
       </c>
       <c r="P2" t="n">
-        <v>157.9397689334062</v>
+        <v>157.9397689334061</v>
       </c>
       <c r="Q2" t="n">
-        <v>118.6061889059196</v>
+        <v>118.6061889059195</v>
       </c>
       <c r="R2" t="n">
-        <v>68.99233497805531</v>
+        <v>68.99233497805527</v>
       </c>
       <c r="S2" t="n">
-        <v>25.02796383598887</v>
+        <v>25.02796383598885</v>
       </c>
       <c r="T2" t="n">
-        <v>4.807895192190508</v>
+        <v>4.807895192190506</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0878655888921166</v>
+        <v>0.08786558889211654</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5876529332566507</v>
+        <v>0.5876529332566504</v>
       </c>
       <c r="H3" t="n">
-        <v>5.675490171189232</v>
+        <v>5.675490171189229</v>
       </c>
       <c r="I3" t="n">
-        <v>20.23278739502065</v>
+        <v>20.23278739502064</v>
       </c>
       <c r="J3" t="n">
-        <v>55.52031506702419</v>
+        <v>55.52031506702415</v>
       </c>
       <c r="K3" t="n">
-        <v>94.89306159521978</v>
+        <v>94.89306159521972</v>
       </c>
       <c r="L3" t="n">
-        <v>127.5954318459232</v>
+        <v>127.5954318459231</v>
       </c>
       <c r="M3" t="n">
-        <v>148.8978506764768</v>
+        <v>148.8978506764767</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8387337245006</v>
+        <v>152.8387337245005</v>
       </c>
       <c r="O3" t="n">
-        <v>139.8175818876032</v>
+        <v>139.8175818876031</v>
       </c>
       <c r="P3" t="n">
-        <v>112.2159360005617</v>
+        <v>112.2159360005616</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.01338144518229</v>
+        <v>75.01338144518225</v>
       </c>
       <c r="R3" t="n">
-        <v>36.48603036482961</v>
+        <v>36.48603036482958</v>
       </c>
       <c r="S3" t="n">
         <v>10.91539549272769</v>
       </c>
       <c r="T3" t="n">
-        <v>2.368653709047639</v>
+        <v>2.368653709047638</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03866137718793756</v>
+        <v>0.03866137718793754</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4926684787009308</v>
+        <v>0.4926684787009306</v>
       </c>
       <c r="H4" t="n">
-        <v>4.380270656086461</v>
+        <v>4.380270656086458</v>
       </c>
       <c r="I4" t="n">
-        <v>14.81588479584254</v>
+        <v>14.81588479584253</v>
       </c>
       <c r="J4" t="n">
-        <v>34.83166144415581</v>
+        <v>34.83166144415578</v>
       </c>
       <c r="K4" t="n">
-        <v>57.2391196163445</v>
+        <v>57.23911961634446</v>
       </c>
       <c r="L4" t="n">
-        <v>73.24636636977294</v>
+        <v>73.2463663697729</v>
       </c>
       <c r="M4" t="n">
-        <v>77.22802343854681</v>
+        <v>77.22802343854677</v>
       </c>
       <c r="N4" t="n">
-        <v>75.39171365429794</v>
+        <v>75.3917136542979</v>
       </c>
       <c r="O4" t="n">
-        <v>69.63645006220069</v>
+        <v>69.63645006220064</v>
       </c>
       <c r="P4" t="n">
-        <v>59.58601309670165</v>
+        <v>59.58601309670161</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.25426688467522</v>
+        <v>41.2542668846752</v>
       </c>
       <c r="R4" t="n">
-        <v>22.15216632413458</v>
+        <v>22.15216632413456</v>
       </c>
       <c r="S4" t="n">
-        <v>8.585867942451674</v>
+        <v>8.585867942451669</v>
       </c>
       <c r="T4" t="n">
-        <v>2.105038045358522</v>
+        <v>2.105038045358521</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0268728261109599</v>
+        <v>0.02687282611095988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,7 +33509,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33746,10 +33746,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>338.6542681503486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34220,10 +34220,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.26923596079111</v>
+        <v>81.26923596079105</v>
       </c>
       <c r="K2" t="n">
-        <v>243.765966564129</v>
+        <v>243.7659665641289</v>
       </c>
       <c r="L2" t="n">
-        <v>355.217911069122</v>
+        <v>355.2179110691219</v>
       </c>
       <c r="M2" t="n">
-        <v>412.0226575849708</v>
+        <v>412.0226575849707</v>
       </c>
       <c r="N2" t="n">
-        <v>403.9098194403009</v>
+        <v>403.9098194403008</v>
       </c>
       <c r="O2" t="n">
-        <v>335.7565103466414</v>
+        <v>335.7565103466413</v>
       </c>
       <c r="P2" t="n">
-        <v>248.5054813496193</v>
+        <v>248.5054813496192</v>
       </c>
       <c r="Q2" t="n">
-        <v>108.6154896913748</v>
+        <v>108.6154896913747</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54.77372374076633</v>
+        <v>54.77372374076629</v>
       </c>
       <c r="K3" t="n">
-        <v>221.5168596334394</v>
+        <v>221.5168596334393</v>
       </c>
       <c r="L3" t="n">
-        <v>359.8813973695082</v>
+        <v>359.8813973695081</v>
       </c>
       <c r="M3" t="n">
-        <v>472.4688805044584</v>
+        <v>472.4688805044583</v>
       </c>
       <c r="N3" t="n">
-        <v>247.5253617177105</v>
+        <v>500.8393959847207</v>
       </c>
       <c r="O3" t="n">
-        <v>391.0836567198883</v>
+        <v>282.8785175478871</v>
       </c>
       <c r="P3" t="n">
-        <v>296.7042972261686</v>
+        <v>296.7042972261685</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.1088950950099</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.96962779046164</v>
+        <v>34.96962779046161</v>
       </c>
       <c r="L4" t="n">
-        <v>100.8363916300891</v>
+        <v>100.836391630089</v>
       </c>
       <c r="M4" t="n">
         <v>116.8119004003874</v>
@@ -34869,10 +34869,10 @@
         <v>119.5238860335265</v>
       </c>
       <c r="O4" t="n">
-        <v>94.22157797624037</v>
+        <v>94.22157797624031</v>
       </c>
       <c r="P4" t="n">
-        <v>56.86457236159514</v>
+        <v>56.8645723615951</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>338.350608422548</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>242.1495397449216</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>410.6381448919842</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>441.3197894238493</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>497.4319917882509</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>196.0580237059041</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
